--- a/src/main/resources/datos/Inventario AA V2.xlsx
+++ b/src/main/resources/datos/Inventario AA V2.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="233">
   <si>
     <t xml:space="preserve">Cuenta de Planta</t>
   </si>
@@ -754,6 +754,9 @@
   </si>
   <si>
     <t xml:space="preserve">MARCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOSHIBA</t>
   </si>
   <si>
     <t xml:space="preserve">MODELO</t>
@@ -771,7 +774,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,6 +847,12 @@
       <name val="Aptos"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1099,7 +1108,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1334,6 +1343,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1753,9 +1766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>59760</xdr:colOff>
+      <xdr:colOff>59040</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1769,7 +1782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="679320" y="1638000"/>
-          <a:ext cx="7388280" cy="4093200"/>
+          <a:ext cx="7387560" cy="4092480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6752,20 +6765,65 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="59" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6816,17 +6874,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="59" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -11516,13 +11594,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11941,7 +12019,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="49" t="s">
         <v>90</v>
       </c>
@@ -12209,7 +12287,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49" t="s">
         <v>104</v>
       </c>
@@ -12321,7 +12399,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="35" t="s">
         <v>111</v>
       </c>
@@ -12374,7 +12452,7 @@
         <v>45506</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="35" t="s">
         <v>120</v>
       </c>
@@ -12539,6 +12617,11 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:I33">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="ACTIVO"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:I33">
       <sortCondition ref="A2:A33" customList=""/>
     </sortState>
@@ -12792,10 +12875,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12809,6 +12892,26 @@
       </c>
       <c r="B1" s="38" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="59" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -12868,10 +12971,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12882,6 +12985,16 @@
       </c>
       <c r="B1" s="38" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -12910,7 +13023,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>228</v>

--- a/src/main/resources/datos/Inventario AA V2.xlsx
+++ b/src/main/resources/datos/Inventario AA V2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
     <sheet name="PARAM_LOC_COND" sheetId="12" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Cassette!$B$2:$M$125</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Cassette!$A$2:$L$125</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Condensadoras!$A$1:$I$33</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">PARAM_ESTADO!$A$1:$A$3</definedName>
   </definedNames>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="233">
   <si>
     <t xml:space="preserve">Cuenta de Planta</t>
   </si>
@@ -603,19 +603,19 @@
     <t xml:space="preserve">MITSUBISHI</t>
   </si>
   <si>
+    <t xml:space="preserve">PURY-P300YNW-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azotea-Otra Porteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-410A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Azotea - Detrás</t>
   </si>
   <si>
-    <t xml:space="preserve">R-410A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Posible fecha sin verificar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURY-P300YNW-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azotea-Otra Porteria</t>
   </si>
   <si>
     <t xml:space="preserve">SUZ-SM71VA</t>
@@ -774,7 +774,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,12 +847,6 @@
       <name val="Aptos"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1108,7 +1102,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1285,12 +1279,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1313,7 +1307,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1321,7 +1315,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1343,10 +1337,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1766,9 +1756,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>59040</xdr:colOff>
+      <xdr:colOff>58320</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1782,7 +1772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="679320" y="1638000"/>
-          <a:ext cx="7387560" cy="4092480"/>
+          <a:ext cx="7386840" cy="4091760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1805,7 +1795,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="127" createdVersion="3">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:N1300" sheet="Cassette"/>
+    <worksheetSource ref="A2:M1300" sheet="Cassette"/>
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="NUM_CASSETTE" numFmtId="0">
@@ -6782,47 +6772,47 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
-        <v>182</v>
+      <c r="A2" s="38" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="38" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="38" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="38" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="38" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="38" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="38" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="38" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="38" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6888,22 +6878,22 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
-        <v>179</v>
+      <c r="A2" s="38" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
-        <v>183</v>
+      <c r="A3" s="38" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="38" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="38" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6925,4661 +6915,4663 @@
   </sheetPr>
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="25.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="30" width="12.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="30" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="30" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="30" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="25.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="12.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="30" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="30" width="16.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="30" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>132</v>
       </c>
+      <c r="K1" s="31"/>
       <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="32" t="s">
+        <v>133</v>
+      </c>
       <c r="B2" s="32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="J2" s="33" t="s">
         <v>2</v>
       </c>
+      <c r="K2" s="32" t="s">
+        <v>140</v>
+      </c>
       <c r="L2" s="32" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="32" t="s">
         <v>141</v>
       </c>
+      <c r="N2" s="34" t="s">
+        <v>142</v>
+      </c>
       <c r="O2" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q2" s="34" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="n">
+        <v>14</v>
+      </c>
       <c r="B3" s="35" t="n">
-        <v>14</v>
-      </c>
-      <c r="C3" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="35" t="s">
         <v>69</v>
       </c>
+      <c r="F3" s="35"/>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>67</v>
       </c>
+      <c r="K3" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J3,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L3" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K3,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K3,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J3,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="N3" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="n">
+        <v>18</v>
+      </c>
       <c r="B4" s="35" t="n">
-        <v>18</v>
-      </c>
-      <c r="C4" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="35" t="s">
         <v>71</v>
       </c>
+      <c r="F4" s="35"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="35" t="s">
         <v>67</v>
       </c>
+      <c r="K4" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J4,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L4" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K4,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K4,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J4,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="N4" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="n">
+        <v>19</v>
+      </c>
       <c r="B5" s="35" t="n">
-        <v>19</v>
-      </c>
-      <c r="C5" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="35" t="s">
         <v>72</v>
       </c>
+      <c r="F5" s="35"/>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35" t="s">
+      <c r="J5" s="35" t="s">
         <v>67</v>
       </c>
+      <c r="K5" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J5,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L5" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K5,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K5,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J5,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="N5" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="n">
+        <v>21</v>
+      </c>
       <c r="B6" s="35" t="n">
-        <v>21</v>
-      </c>
-      <c r="C6" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="35" t="s">
         <v>70</v>
       </c>
+      <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="35" t="s">
         <v>67</v>
       </c>
+      <c r="K6" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J6,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L6" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K6,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K6,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J6,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="N6" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="n">
+        <v>9</v>
+      </c>
       <c r="B7" s="35" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="35" t="s">
         <v>77</v>
       </c>
+      <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35" t="s">
+      <c r="J7" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K7" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J7,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L7" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K7,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K7,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J7,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="N7" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="n">
+        <v>10</v>
+      </c>
       <c r="B8" s="35" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="35" t="s">
         <v>74</v>
       </c>
+      <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K8" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J8,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L8" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K8,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K8,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J8,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="N8" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="n">
+        <v>11</v>
+      </c>
       <c r="B9" s="35" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="35" t="s">
         <v>75</v>
       </c>
+      <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K9" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J9,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L9" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K9,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K9,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J9,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="N9" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="n">
+        <v>11</v>
+      </c>
       <c r="B10" s="35" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="35" t="s">
         <v>81</v>
       </c>
+      <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35" t="s">
+      <c r="J10" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K10" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J10,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L10" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K10,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K10,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J10,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="N10" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="n">
+        <v>12</v>
+      </c>
       <c r="B11" s="35" t="n">
-        <v>12</v>
-      </c>
-      <c r="C11" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="35" t="s">
         <v>76</v>
       </c>
+      <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35" t="s">
+      <c r="J11" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K11" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J11,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L11" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K11,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K11,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J11,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="N11" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="n">
+        <v>13</v>
+      </c>
       <c r="B12" s="35" t="n">
-        <v>13</v>
-      </c>
-      <c r="C12" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="35" t="s">
         <v>82</v>
       </c>
+      <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35" t="s">
+      <c r="J12" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K12" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J12,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L12" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K12,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K12,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J12,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="N12" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="n">
+        <v>14</v>
+      </c>
       <c r="B13" s="35" t="n">
-        <v>14</v>
-      </c>
-      <c r="C13" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="35" t="s">
         <v>78</v>
       </c>
+      <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35" t="s">
+      <c r="J13" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K13" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J13,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K13,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K13,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J13,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="N13" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="n">
+        <v>15</v>
+      </c>
       <c r="B14" s="35" t="n">
-        <v>15</v>
-      </c>
-      <c r="C14" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="35" t="s">
         <v>79</v>
       </c>
+      <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35" t="s">
+      <c r="J14" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K14" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J14,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L14" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K14,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K14,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J14,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="N14" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="n">
+        <v>16</v>
+      </c>
       <c r="B15" s="35" t="n">
-        <v>16</v>
-      </c>
-      <c r="C15" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="35" t="s">
         <v>80</v>
       </c>
+      <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35" t="s">
+      <c r="J15" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K15" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J15,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L15" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K15,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K15,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J15,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="37" t="n">
         <v>39083</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="N15" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35" t="n">
+        <v>17</v>
+      </c>
       <c r="B16" s="35" t="n">
-        <v>17</v>
-      </c>
-      <c r="C16" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="35" t="s">
         <v>72</v>
       </c>
+      <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35" t="s">
+      <c r="J16" s="35" t="s">
         <v>73</v>
       </c>
+      <c r="K16" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J16,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L16" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K16,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K16,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K16,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K16,Condensadoras!$A$2:$I$77,7,0))</f>
+        <f aca="false">IFERROR(VLOOKUP(J16,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J16,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J16,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Detrás</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="35" t="n">
-        <v>1</v>
+      <c r="B17" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="35" t="s">
         <v>110</v>
       </c>
+      <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35" t="s">
+      <c r="J17" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K17,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K17" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J17,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>KA35VA6</v>
       </c>
-      <c r="M17" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K17,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K17,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K17,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L17" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J17,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J17,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J17,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Patio Olivera</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="35" t="n">
+        <v>40</v>
+      </c>
       <c r="B18" s="35" t="n">
-        <v>40</v>
-      </c>
-      <c r="C18" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="35" t="s">
         <v>112</v>
       </c>
+      <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35" t="s">
+      <c r="J18" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K18,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K18" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J18,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-M35VA</v>
       </c>
-      <c r="M18" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K18,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K18,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K18,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L18" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J18,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J18,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J18,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Patio Olivera</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="35" t="n">
-        <v>1</v>
+      <c r="B19" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="35" t="s">
         <v>114</v>
       </c>
+      <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35" t="s">
+      <c r="J19" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L19" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K19,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K19" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J19,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM2</v>
       </c>
-      <c r="M19" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K19,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K19,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K19,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L19" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J19,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J19,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J19,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea-Detrás</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="39" t="n">
+      <c r="A20" s="39" t="n">
         <v>45</v>
       </c>
-      <c r="C20" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="35" t="s">
+      <c r="B20" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D20" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="E20" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J20,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>PUMY-P300YBM</v>
+      </c>
+      <c r="L20" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J20,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J20,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J20,Condensadoras!$A$2:$I$77,7,0))</f>
+        <v>Azotea - Detrás</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="39" t="n">
+        <v>46</v>
+      </c>
+      <c r="B21" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="39" t="s">
+      <c r="E21" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="G21" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="H21" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39" t="s">
+      <c r="I21" s="39"/>
+      <c r="J21" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="L20" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K20,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K21" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J21,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM</v>
       </c>
-      <c r="M20" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K20,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K20,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K20,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L21" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J21,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J21,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J21,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Detrás</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="39" t="n">
-        <v>46</v>
-      </c>
-      <c r="C21" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="35" t="s">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="39" t="n">
+        <v>47</v>
+      </c>
+      <c r="B22" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="D22" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="39" t="s">
+      <c r="E22" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="G22" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="H22" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39" t="s">
+      <c r="I22" s="39"/>
+      <c r="J22" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="L21" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K21,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K22" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J22,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM</v>
       </c>
-      <c r="M21" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K21,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K21,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K21,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L22" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J22,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J22,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J22,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Detrás</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="39" t="n">
-        <v>47</v>
-      </c>
-      <c r="C22" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="35" t="s">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="39" t="n">
+        <v>48</v>
+      </c>
+      <c r="B23" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="D23" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="39" t="s">
+      <c r="E23" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="G23" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="H23" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39" t="s">
+      <c r="I23" s="39"/>
+      <c r="J23" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="L22" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K22,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K23" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J23,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM</v>
       </c>
-      <c r="M22" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K22,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K22,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K22,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L23" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J23,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J23,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J23,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Detrás</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="39" t="n">
-        <v>48</v>
-      </c>
-      <c r="C23" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="35" t="s">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="39" t="n">
+        <v>49</v>
+      </c>
+      <c r="B24" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="D24" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="39" t="s">
+      <c r="E24" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="G24" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="H24" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39" t="s">
+      <c r="I24" s="39"/>
+      <c r="J24" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K23,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K24" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J24,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM</v>
       </c>
-      <c r="M23" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K23,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K23,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K23,Condensadoras!$A$2:$I$77,7,0))</f>
-        <v>Azotea - Detrás</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="39" t="n">
-        <v>49</v>
-      </c>
-      <c r="C24" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="35" t="s">
+      <c r="L24" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J24,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="37" t="n">
+        <v>40909</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="35" t="n">
+        <v>32</v>
+      </c>
+      <c r="B25" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="L24" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K24,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>PUMY-P300YBM</v>
-      </c>
-      <c r="M24" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K24,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="37" t="n">
-        <v>40909</v>
-      </c>
-      <c r="O24" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="35" t="n">
-        <v>32</v>
-      </c>
-      <c r="C25" s="35" t="n">
-        <v>1</v>
-      </c>
       <c r="D25" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="35" t="s">
         <v>43</v>
       </c>
+      <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35" t="s">
+      <c r="J25" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K25" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J25,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L25" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K25,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K25,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J25,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O25" s="38" t="s">
+      <c r="N25" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35" t="n">
+        <v>33</v>
+      </c>
       <c r="B26" s="35" t="n">
-        <v>33</v>
-      </c>
-      <c r="C26" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="35" t="s">
         <v>44</v>
       </c>
+      <c r="F26" s="35"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35" t="s">
+      <c r="J26" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K26" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J26,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L26" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K26,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K26,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J26,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="N26" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="35" t="n">
+        <v>34</v>
+      </c>
       <c r="B27" s="35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C27" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="35" t="s">
         <v>54</v>
       </c>
+      <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35" t="s">
+      <c r="J27" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K27" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J27,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L27" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K27,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K27,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J27,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O27" s="38" t="s">
+      <c r="N27" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="35" t="n">
+        <v>35</v>
+      </c>
       <c r="B28" s="35" t="n">
-        <v>35</v>
-      </c>
-      <c r="C28" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="35" t="s">
         <v>53</v>
       </c>
+      <c r="F28" s="35"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35" t="s">
+      <c r="J28" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K28" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J28,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L28" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K28,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K28,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J28,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O28" s="38" t="s">
+      <c r="N28" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="35" t="n">
+        <v>36</v>
+      </c>
       <c r="B29" s="35" t="n">
-        <v>36</v>
-      </c>
-      <c r="C29" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="35" t="s">
         <v>45</v>
       </c>
+      <c r="F29" s="35"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35" t="s">
+      <c r="J29" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K29" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J29,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L29" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K29,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K29,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J29,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O29" s="38" t="s">
+      <c r="N29" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="35" t="n">
+        <v>37</v>
+      </c>
       <c r="B30" s="35" t="n">
-        <v>37</v>
-      </c>
-      <c r="C30" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="35" t="s">
         <v>46</v>
       </c>
+      <c r="F30" s="35"/>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35" t="s">
+      <c r="J30" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K30" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J30,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L30" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K30,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K30,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J30,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O30" s="38" t="s">
+      <c r="N30" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="35" t="n">
+        <v>38</v>
+      </c>
       <c r="B31" s="35" t="n">
-        <v>38</v>
-      </c>
-      <c r="C31" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="35" t="s">
         <v>47</v>
       </c>
+      <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35" t="s">
+      <c r="J31" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K31" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J31,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L31" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K31,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K31,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J31,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O31" s="38" t="s">
+      <c r="N31" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="35" t="n">
+        <v>39</v>
+      </c>
       <c r="B32" s="35" t="n">
-        <v>39</v>
-      </c>
-      <c r="C32" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="35" t="s">
         <v>48</v>
       </c>
+      <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35" t="s">
+      <c r="J32" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K32" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J32,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L32" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K32,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K32,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J32,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O32" s="38" t="s">
+      <c r="N32" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="35" t="n">
+        <v>40</v>
+      </c>
       <c r="B33" s="35" t="n">
-        <v>40</v>
-      </c>
-      <c r="C33" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="35" t="s">
         <v>49</v>
       </c>
+      <c r="F33" s="35"/>
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35" t="s">
+      <c r="J33" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K33" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J33,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L33" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K33,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K33,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J33,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O33" s="38" t="s">
+      <c r="N33" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="35" t="n">
+        <v>41</v>
+      </c>
       <c r="B34" s="35" t="n">
-        <v>41</v>
-      </c>
-      <c r="C34" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="35" t="s">
         <v>50</v>
       </c>
+      <c r="F34" s="35"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35" t="s">
+      <c r="J34" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K34" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J34,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L34" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K34,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K34,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J34,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O34" s="38" t="s">
+      <c r="N34" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="35" t="n">
+        <v>42</v>
+      </c>
       <c r="B35" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>145</v>
-      </c>
       <c r="E35" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="35" t="s">
         <v>51</v>
       </c>
+      <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35" t="s">
+      <c r="J35" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K35" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J35,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L35" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K35,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K35,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J35,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O35" s="38" t="s">
+      <c r="N35" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="35" t="n">
+        <v>43</v>
+      </c>
       <c r="B36" s="35" t="n">
-        <v>43</v>
-      </c>
-      <c r="C36" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="35" t="s">
         <v>52</v>
       </c>
+      <c r="F36" s="35"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35" t="s">
+      <c r="J36" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="K36" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J36,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L36" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K36,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K36,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J36,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O36" s="38" t="s">
+      <c r="N36" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="35" t="s">
+      <c r="A37" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="35" t="n">
-        <v>1</v>
+      <c r="B37" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="35" t="s">
         <v>105</v>
       </c>
+      <c r="F37" s="35"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35" t="s">
+      <c r="J37" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="L37" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K37,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K37" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J37,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-KA60VA2</v>
       </c>
-      <c r="M37" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K37,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="37" t="n">
+      <c r="L37" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J37,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O37" s="38" t="s">
+      <c r="N37" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="35" t="s">
+      <c r="A38" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="35" t="n">
-        <v>1</v>
+      <c r="B38" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="35" t="s">
         <v>53</v>
       </c>
+      <c r="F38" s="35"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35" t="s">
+      <c r="J38" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="L38" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K38,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K38" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J38,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-KA60VA2</v>
       </c>
-      <c r="M38" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K38,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="37" t="n">
+      <c r="L38" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J38,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O38" s="38" t="s">
+      <c r="N38" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="35" t="n">
-        <v>1</v>
+      <c r="B39" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="35" t="s">
         <v>108</v>
       </c>
+      <c r="F39" s="35"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35" t="s">
+      <c r="J39" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="L39" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K39,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K39" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J39,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-KA50VA</v>
       </c>
-      <c r="M39" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K39,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="37" t="n">
+      <c r="L39" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J39,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O39" s="38" t="s">
+      <c r="N39" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="35" t="s">
+      <c r="A40" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="35" t="n">
-        <v>1</v>
+      <c r="B40" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="35" t="s">
         <v>116</v>
       </c>
+      <c r="F40" s="35"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35" t="s">
+      <c r="J40" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L40" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K40,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K40" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J40,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM2</v>
       </c>
-      <c r="M40" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K40,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="37" t="n">
+      <c r="L40" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J40,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O40" s="38" t="s">
+      <c r="N40" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="35" t="s">
+      <c r="A41" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="35" t="n">
-        <v>1</v>
+      <c r="B41" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="35" t="s">
         <v>115</v>
       </c>
+      <c r="F41" s="35"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35" t="s">
+      <c r="J41" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L41" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K41,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K41" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J41,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM2</v>
       </c>
-      <c r="M41" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K41,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="37" t="n">
+      <c r="L41" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J41,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O41" s="38" t="s">
+      <c r="N41" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="39" t="n">
+      <c r="A42" s="39" t="n">
         <v>44</v>
       </c>
-      <c r="C42" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="35" t="s">
+      <c r="B42" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D42" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="E42" s="39" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H42" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J42,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>PUMY-P300YBM</v>
+      </c>
+      <c r="L42" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J42,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="37" t="n">
+        <v>40909</v>
+      </c>
+      <c r="N42" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="I42" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="L42" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K42,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>PUMY-P300YBM</v>
-      </c>
-      <c r="M42" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K42,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="37" t="n">
-        <v>40909</v>
-      </c>
-      <c r="O42" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>22</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>150</v>
       </c>
       <c r="H43" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J43,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>PURY-P300YNW-A</v>
+      </c>
+      <c r="L43" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J43,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="37" t="n">
+        <v>40909</v>
+      </c>
+      <c r="N43" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="I43" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K43,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>PURY-P300YNW-A</v>
-      </c>
-      <c r="M43" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K43,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="37" t="n">
-        <v>40909</v>
-      </c>
-      <c r="O43" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="C44" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>23</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>150</v>
       </c>
       <c r="H44" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J44,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>PURY-P300YNW-A</v>
+      </c>
+      <c r="L44" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J44,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="37" t="n">
+        <v>40909</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="I44" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K44,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>PURY-P300YNW-A</v>
-      </c>
-      <c r="M44" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K44,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="37" t="n">
-        <v>40909</v>
-      </c>
-      <c r="O44" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="C45" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>24</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>150</v>
       </c>
       <c r="H45" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J45,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>PURY-P300YNW-A</v>
+      </c>
+      <c r="L45" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J45,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="37" t="n">
+        <v>40909</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B46" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K45,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>PURY-P300YNW-A</v>
-      </c>
-      <c r="M45" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K45,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="37" t="n">
-        <v>40909</v>
-      </c>
-      <c r="O45" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C46" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>25</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>150</v>
       </c>
       <c r="H46" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J46,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>PURY-P300YNW-A</v>
+      </c>
+      <c r="L46" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J46,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="37" t="n">
+        <v>39083</v>
+      </c>
+      <c r="N46" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="I46" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K46,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>PURY-P300YNW-A</v>
-      </c>
-      <c r="M46" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K46,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="37" t="n">
-        <v>39083</v>
-      </c>
-      <c r="O46" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>26</v>
       </c>
       <c r="G47" s="39" t="s">
         <v>150</v>
       </c>
       <c r="H47" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J47,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>PURY-P300YNW-A</v>
+      </c>
+      <c r="L47" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J47,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="37" t="n">
+        <v>39083</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B48" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K47,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>PURY-P300YNW-A</v>
-      </c>
-      <c r="M47" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K47,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="37" t="n">
-        <v>39083</v>
-      </c>
-      <c r="O47" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="C48" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="39" t="s">
-        <v>27</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>150</v>
       </c>
       <c r="H48" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J48,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>PURY-P300YNW-A</v>
+      </c>
+      <c r="L48" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J48,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="37" t="n">
+        <v>40909</v>
+      </c>
+      <c r="N48" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="39" t="n">
+        <v>41</v>
+      </c>
+      <c r="B49" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="I48" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K48,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>PURY-P300YNW-A</v>
-      </c>
-      <c r="M48" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K48,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="37" t="n">
-        <v>40909</v>
-      </c>
-      <c r="O48" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="39" t="n">
-        <v>41</v>
-      </c>
-      <c r="C49" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>28</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>150</v>
       </c>
       <c r="H49" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J49,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>PURY-P300YNW-A</v>
+      </c>
+      <c r="L49" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J49,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="37" t="n">
+        <v>40909</v>
+      </c>
+      <c r="N49" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="39" t="n">
+        <v>42</v>
+      </c>
+      <c r="B50" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="I49" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K49,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>PURY-P300YNW-A</v>
-      </c>
-      <c r="M49" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K49,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="37" t="n">
-        <v>40909</v>
-      </c>
-      <c r="O49" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="39" t="n">
-        <v>42</v>
-      </c>
-      <c r="C50" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>29</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>150</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I50" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39" t="s">
+      <c r="I50" s="39"/>
+      <c r="J50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K50,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K50" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J50,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PURY-P300YNW-A</v>
       </c>
-      <c r="M50" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K50,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="37" t="n">
+      <c r="L50" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J50,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O50" s="38" t="s">
+      <c r="N50" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="35" t="n">
+        <v>17</v>
+      </c>
       <c r="B51" s="35" t="n">
-        <v>17</v>
-      </c>
-      <c r="C51" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="35" t="s">
         <v>38</v>
       </c>
+      <c r="F51" s="35"/>
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35" t="s">
+      <c r="J51" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="K51" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J51,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L51" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K51,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K51,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J51,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O51" s="38" t="s">
+      <c r="N51" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="35" t="n">
+        <v>18</v>
+      </c>
       <c r="B52" s="35" t="n">
-        <v>18</v>
-      </c>
-      <c r="C52" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="35" t="s">
         <v>39</v>
       </c>
+      <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35" t="s">
+      <c r="J52" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="K52" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J52,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L52" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K52,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K52,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J52,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O52" s="38" t="s">
+      <c r="N52" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="35" t="n">
+        <v>19</v>
+      </c>
       <c r="B53" s="35" t="n">
-        <v>19</v>
-      </c>
-      <c r="C53" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="35" t="s">
         <v>31</v>
       </c>
+      <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35" t="s">
+      <c r="J53" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="K53" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J53,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L53" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K53,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K53,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J53,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O53" s="38" t="s">
+      <c r="N53" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="35" t="n">
+        <v>20</v>
+      </c>
       <c r="B54" s="35" t="n">
-        <v>20</v>
-      </c>
-      <c r="C54" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="35" t="s">
         <v>32</v>
       </c>
+      <c r="F54" s="35"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35" t="s">
+      <c r="J54" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="K54" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J54,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L54" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K54,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K54,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J54,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O54" s="38" t="s">
+      <c r="N54" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="35" t="n">
+        <v>21</v>
+      </c>
       <c r="B55" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>145</v>
-      </c>
       <c r="E55" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="35" t="s">
         <v>33</v>
       </c>
+      <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35" t="s">
+      <c r="J55" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="K55" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J55,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L55" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K55,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K55,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J55,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O55" s="38" t="s">
+      <c r="N55" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="35" t="n">
+        <v>22</v>
+      </c>
       <c r="B56" s="35" t="n">
-        <v>22</v>
-      </c>
-      <c r="C56" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="35" t="s">
         <v>34</v>
       </c>
+      <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35" t="s">
+      <c r="J56" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="K56" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J56,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L56" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K56,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K56,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J56,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O56" s="38" t="s">
+      <c r="N56" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="35" t="n">
+        <v>23</v>
+      </c>
       <c r="B57" s="35" t="n">
-        <v>23</v>
-      </c>
-      <c r="C57" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="35" t="s">
         <v>35</v>
       </c>
+      <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35" t="s">
+      <c r="J57" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="K57" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J57,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L57" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K57,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K57,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J57,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O57" s="38" t="s">
+      <c r="N57" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="35" t="n">
+        <v>24</v>
+      </c>
       <c r="B58" s="35" t="n">
-        <v>24</v>
-      </c>
-      <c r="C58" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="35" t="s">
         <v>40</v>
       </c>
+      <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35" t="s">
+      <c r="J58" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="K58" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J58,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L58" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K58,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K58,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J58,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O58" s="38" t="s">
+      <c r="N58" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="35" t="n">
+        <v>25</v>
+      </c>
       <c r="B59" s="35" t="n">
-        <v>25</v>
-      </c>
-      <c r="C59" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="35" t="s">
         <v>36</v>
       </c>
+      <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35" t="s">
+      <c r="J59" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="K59" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J59,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L59" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K59,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K59,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J59,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O59" s="38" t="s">
+      <c r="N59" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="35" t="n">
+        <v>26</v>
+      </c>
       <c r="B60" s="35" t="n">
-        <v>26</v>
-      </c>
-      <c r="C60" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="35" t="s">
         <v>37</v>
       </c>
+      <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35" t="s">
+      <c r="J60" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="K60" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J60,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L60" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K60,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K60,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J60,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O60" s="38" t="s">
+      <c r="N60" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="35" t="s">
+      <c r="A61" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="35" t="n">
-        <v>1</v>
+      <c r="B61" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="35" t="s">
         <v>86</v>
       </c>
+      <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35" t="s">
+      <c r="J61" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="L61" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K61,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K61" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J61,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-KA50VA</v>
       </c>
-      <c r="M61" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K61,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="37" t="n">
+      <c r="L61" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J61,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O61" s="38" t="s">
+      <c r="N61" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="35" t="n">
+        <v>39</v>
+      </c>
       <c r="B62" s="35" t="n">
-        <v>39</v>
-      </c>
-      <c r="C62" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="35" t="s">
         <v>97</v>
       </c>
+      <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35" t="s">
+      <c r="J62" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="L62" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K62,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K62" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J62,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-M50VA</v>
       </c>
-      <c r="M62" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K62,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N62" s="37" t="n">
+      <c r="L62" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J62,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O62" s="38" t="s">
+      <c r="N62" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="35" t="s">
+      <c r="A63" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="35" t="n">
-        <v>1</v>
+      <c r="B63" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="35" t="s">
         <v>99</v>
       </c>
+      <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35" t="s">
+      <c r="J63" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="L63" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K63,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K63" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J63,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-M35VA</v>
       </c>
-      <c r="M63" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K63,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N63" s="37" t="n">
+      <c r="L63" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J63,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O63" s="38" t="s">
+      <c r="N63" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-      <c r="B64" s="35" t="s">
+      <c r="A64" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="35" t="n">
-        <v>1</v>
+      <c r="B64" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="35" t="s">
         <v>103</v>
       </c>
+      <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35" t="s">
+      <c r="J64" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="L64" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K64,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K64" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J64,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-M35VA</v>
       </c>
-      <c r="M64" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K64,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N64" s="37" t="n">
+      <c r="L64" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J64,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O64" s="38" t="s">
+      <c r="N64" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="Q64" s="0"/>
     </row>
     <row r="65" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
+      <c r="A65" s="35" t="n">
+        <v>27</v>
+      </c>
       <c r="B65" s="35" t="n">
-        <v>27</v>
-      </c>
-      <c r="C65" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="35" t="s">
         <v>121</v>
       </c>
+      <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
       <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35" t="s">
+      <c r="J65" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="L65" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K65,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K65" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J65,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM</v>
       </c>
-      <c r="M65" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K65,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N65" s="37" t="n">
+      <c r="L65" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J65,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O65" s="38" t="s">
+      <c r="N65" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+      <c r="Q65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="35" t="n">
+        <v>28</v>
+      </c>
       <c r="B66" s="35" t="n">
-        <v>28</v>
-      </c>
-      <c r="C66" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" s="35" t="s">
         <v>122</v>
       </c>
+      <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35" t="s">
+      <c r="J66" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="L66" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K66,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K66" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J66,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM</v>
       </c>
-      <c r="M66" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K66,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N66" s="37" t="n">
+      <c r="L66" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J66,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O66" s="38" t="s">
+      <c r="N66" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="41"/>
+      <c r="A67" s="35" t="n">
+        <v>29</v>
+      </c>
       <c r="B67" s="35" t="n">
-        <v>29</v>
-      </c>
-      <c r="C67" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="35" t="s">
         <v>123</v>
       </c>
+      <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35" t="s">
+      <c r="J67" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="L67" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K67,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K67" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J67,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM</v>
       </c>
-      <c r="M67" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K67,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N67" s="37" t="n">
+      <c r="L67" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J67,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O67" s="38" t="s">
+      <c r="N67" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="O67" s="41"/>
       <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
     </row>
     <row r="68" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="41"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" s="35" t="s">
+      <c r="A68" s="39"/>
+      <c r="B68" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="E68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="39" t="s">
         <v>124</v>
       </c>
+      <c r="F68" s="39"/>
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
       <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39" t="s">
+      <c r="J68" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="L68" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K68,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K68" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J68,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM</v>
       </c>
-      <c r="M68" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K68,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N68" s="37" t="n">
+      <c r="L68" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J68,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O68" s="38" t="s">
+      <c r="N68" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="O68" s="41"/>
       <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="39"/>
-      <c r="C69" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" s="35" t="s">
+      <c r="A69" s="39"/>
+      <c r="B69" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="E69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="39" t="s">
         <v>124</v>
       </c>
+      <c r="F69" s="39"/>
       <c r="G69" s="39"/>
       <c r="H69" s="39"/>
       <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39" t="s">
+      <c r="J69" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="L69" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K69,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K69" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J69,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM</v>
       </c>
-      <c r="M69" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K69,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="37" t="n">
+      <c r="L69" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J69,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O69" s="38" t="s">
+      <c r="N69" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="39"/>
-      <c r="C70" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" s="35" t="s">
+      <c r="A70" s="39"/>
+      <c r="B70" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="E70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" s="39" t="s">
         <v>124</v>
       </c>
+      <c r="F70" s="39"/>
       <c r="G70" s="39"/>
       <c r="H70" s="39"/>
       <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39" t="s">
+      <c r="J70" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="L70" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K70,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K70" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J70,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM</v>
       </c>
-      <c r="M70" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K70,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N70" s="37" t="n">
+      <c r="L70" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J70,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O70" s="38" t="s">
+      <c r="N70" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="35" t="n">
+        <v>3</v>
+      </c>
       <c r="B71" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C71" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="35" t="s">
         <v>9</v>
       </c>
+      <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35" t="s">
+      <c r="J71" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K71" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J71,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L71" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K71,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K71,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N71" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J71,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O71" s="38" t="s">
+      <c r="N71" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="35" t="n">
+        <v>4</v>
+      </c>
       <c r="B72" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="C72" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="35" t="s">
         <v>9</v>
       </c>
+      <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
       <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35" t="s">
+      <c r="J72" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K72" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J72,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L72" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K72,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K72,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N72" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J72,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O72" s="38" t="s">
+      <c r="N72" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="35" t="n">
+        <v>5</v>
+      </c>
       <c r="B73" s="35" t="n">
-        <v>5</v>
-      </c>
-      <c r="C73" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="35" t="s">
         <v>9</v>
       </c>
+      <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35" t="s">
+      <c r="J73" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K73" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J73,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L73" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K73,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K73,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N73" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J73,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O73" s="38" t="s">
+      <c r="N73" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="35" t="n">
+        <v>6</v>
+      </c>
       <c r="B74" s="35" t="n">
-        <v>6</v>
-      </c>
-      <c r="C74" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="35" t="s">
         <v>13</v>
       </c>
+      <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35" t="s">
+      <c r="J74" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K74" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J74,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L74" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K74,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K74,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N74" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J74,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O74" s="38" t="s">
+      <c r="N74" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
+      <c r="A75" s="35" t="n">
+        <v>7</v>
+      </c>
       <c r="B75" s="35" t="n">
-        <v>7</v>
-      </c>
-      <c r="C75" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="35" t="s">
         <v>14</v>
       </c>
+      <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35" t="s">
+      <c r="J75" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K75" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J75,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L75" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K75,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K75,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N75" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J75,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O75" s="38" t="s">
+      <c r="N75" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+      <c r="Q75" s="0"/>
     </row>
     <row r="76" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
+      <c r="A76" s="35" t="n">
+        <v>8</v>
+      </c>
       <c r="B76" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>145</v>
-      </c>
       <c r="E76" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="35" t="s">
         <v>17</v>
       </c>
+      <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35" t="s">
+      <c r="J76" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K76" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J76,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L76" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K76,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K76,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N76" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J76,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O76" s="38" t="s">
+      <c r="N76" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="Q76" s="0"/>
     </row>
     <row r="77" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1"/>
+      <c r="A77" s="35" t="n">
+        <v>9</v>
+      </c>
       <c r="B77" s="35" t="n">
-        <v>9</v>
-      </c>
-      <c r="C77" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="35" t="s">
         <v>15</v>
       </c>
+      <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35" t="s">
+      <c r="J77" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K77" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J77,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L77" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K77,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M77" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K77,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N77" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J77,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="37" t="n">
         <v>40909</v>
       </c>
-      <c r="O77" s="38" t="s">
+      <c r="N77" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="Q77" s="0"/>
     </row>
     <row r="78" s="41" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="35" t="n">
+        <v>10</v>
+      </c>
       <c r="B78" s="35" t="n">
-        <v>10</v>
-      </c>
-      <c r="C78" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="35" t="s">
         <v>16</v>
       </c>
+      <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35" t="s">
+      <c r="J78" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K78" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J78,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L78" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K78,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M78" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K78,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N78" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J78,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="37" t="n">
         <v>38718</v>
       </c>
-      <c r="O78" s="38" t="s">
+      <c r="N78" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="Q78" s="0"/>
     </row>
     <row r="79" s="41" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="35" t="n">
+        <v>11</v>
+      </c>
       <c r="B79" s="35" t="n">
-        <v>11</v>
-      </c>
-      <c r="C79" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35" t="s">
+      <c r="J79" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K79" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J79,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L79" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K79,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K79,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N79" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J79,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="37" t="n">
         <v>38718</v>
       </c>
-      <c r="O79" s="38" t="s">
+      <c r="N79" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="Q79" s="0"/>
     </row>
     <row r="80" s="41" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="35" t="n">
+        <v>12</v>
+      </c>
       <c r="B80" s="35" t="n">
-        <v>12</v>
-      </c>
-      <c r="C80" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="35" t="s">
         <v>10</v>
       </c>
+      <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35" t="s">
+      <c r="J80" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K80" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J80,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L80" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K80,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M80" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K80,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N80" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J80,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="37" t="n">
         <v>38718</v>
       </c>
-      <c r="O80" s="38" t="s">
+      <c r="N80" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="Q80" s="0"/>
     </row>
     <row r="81" s="41" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="35" t="n">
+        <v>13</v>
+      </c>
       <c r="B81" s="35" t="n">
-        <v>13</v>
-      </c>
-      <c r="C81" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="35" t="s">
         <v>11</v>
       </c>
+      <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35" t="s">
+      <c r="J81" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K81" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J81,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L81" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K81,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M81" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K81,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N81" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J81,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="37" t="n">
         <v>43831</v>
       </c>
-      <c r="O81" s="38" t="s">
+      <c r="N81" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="Q81" s="0"/>
     </row>
     <row r="82" s="41" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="35" t="n">
+        <v>14</v>
+      </c>
       <c r="B82" s="35" t="n">
-        <v>14</v>
-      </c>
-      <c r="C82" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="35" t="s">
         <v>18</v>
       </c>
+      <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
       <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35" t="s">
+      <c r="J82" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K82" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J82,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L82" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K82,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K82,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N82" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J82,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O82" s="38" t="s">
+      <c r="N82" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="Q82" s="0"/>
     </row>
     <row r="83" s="41" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="35" t="n">
+        <v>15</v>
+      </c>
       <c r="B83" s="35" t="n">
-        <v>15</v>
-      </c>
-      <c r="C83" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="35" t="s">
         <v>19</v>
       </c>
+      <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
       <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35" t="s">
+      <c r="J83" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="K83" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J83,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L83" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K83,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M83" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K83,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N83" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K83,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K83,Condensadoras!$A$2:$I$77,7,0))</f>
+        <f aca="false">IFERROR(VLOOKUP(J83,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J83,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J83,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Detrás</v>
       </c>
-      <c r="O83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="Q83" s="0"/>
     </row>
     <row r="84" s="41" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="35" t="s">
+      <c r="A84" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="35" t="n">
-        <v>1</v>
+      <c r="B84" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="35" t="s">
         <v>56</v>
       </c>
+      <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35" t="s">
+      <c r="J84" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="L84" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K84,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K84" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J84,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-SM71VA</v>
       </c>
-      <c r="M84" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K84,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N84" s="37" t="n">
+      <c r="L84" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J84,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O84" s="38" t="s">
+      <c r="N84" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="Q84" s="0"/>
     </row>
     <row r="85" s="41" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="35" t="s">
+      <c r="A85" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C85" s="35" t="n">
-        <v>1</v>
+      <c r="B85" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="35" t="s">
         <v>58</v>
       </c>
+      <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35" t="s">
+      <c r="J85" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L85" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K85,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K85" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J85,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-SM71VA</v>
       </c>
-      <c r="M85" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K85,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N85" s="37" t="n">
+      <c r="L85" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J85,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O85" s="38" t="s">
+      <c r="N85" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="Q85" s="0"/>
     </row>
     <row r="86" s="41" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="35" t="s">
+      <c r="A86" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="35" t="n">
-        <v>1</v>
+      <c r="B86" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="35" t="s">
         <v>87</v>
       </c>
+      <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35" t="s">
+      <c r="J86" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="L86" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K86,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K86" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J86,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-KA50VA</v>
       </c>
-      <c r="M86" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K86,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N86" s="37" t="n">
+      <c r="L86" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J86,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O86" s="38" t="s">
+      <c r="N86" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="Q86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="41"/>
-      <c r="B87" s="35" t="s">
+      <c r="A87" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="35" t="n">
-        <v>1</v>
+      <c r="B87" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="35" t="s">
         <v>89</v>
       </c>
+      <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35" t="s">
+      <c r="J87" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="L87" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K87,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K87" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J87,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-KA50VA</v>
       </c>
-      <c r="M87" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K87,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N87" s="37" t="n">
+      <c r="L87" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J87,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O87" s="38" t="s">
+      <c r="N87" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="O87" s="41"/>
       <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
     </row>
     <row r="88" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="41"/>
+      <c r="A88" s="35" t="n">
+        <v>33</v>
+      </c>
       <c r="B88" s="35" t="n">
-        <v>33</v>
-      </c>
-      <c r="C88" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="35" t="s">
         <v>91</v>
       </c>
+      <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
       <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35" t="s">
+      <c r="J88" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="L88" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K88,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K88" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J88,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUHZ-RP140YKA</v>
       </c>
-      <c r="M88" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K88,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N88" s="37" t="n">
+      <c r="L88" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J88,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O88" s="38" t="s">
+      <c r="N88" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="O88" s="41"/>
       <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
     </row>
     <row r="89" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="41"/>
+      <c r="A89" s="35" t="n">
+        <v>34</v>
+      </c>
       <c r="B89" s="35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C89" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="35" t="s">
         <v>93</v>
       </c>
+      <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
       <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35" t="s">
+      <c r="J89" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="L89" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K89,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K89" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J89,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUHZ-RP140YKA</v>
       </c>
-      <c r="M89" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K89,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N89" s="37" t="n">
+      <c r="L89" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J89,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O89" s="38" t="s">
+      <c r="N89" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="O89" s="41"/>
       <c r="P89" s="41"/>
-      <c r="Q89" s="41"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="35" t="n">
+        <v>35</v>
+      </c>
       <c r="B90" s="35" t="n">
-        <v>35</v>
-      </c>
-      <c r="C90" s="35" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="35" t="s">
         <v>95</v>
       </c>
+      <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35" t="s">
+      <c r="J90" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="L90" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K90,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K90" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J90,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUHZ-RP140YKA</v>
       </c>
-      <c r="M90" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K90,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N90" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K90,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K90,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L90" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J90,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J90,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J90,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Frente</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="35" t="s">
+      <c r="A91" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="35" t="n">
-        <v>1</v>
+      <c r="B91" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="35" t="s">
         <v>117</v>
       </c>
+      <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35" t="s">
+      <c r="J91" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L91" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K91,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K91" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J91,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM2</v>
       </c>
-      <c r="M91" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K91,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N91" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K91,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K91,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L91" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J91,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J91,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J91,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea-Detrás</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="42" t="n">
+      <c r="A92" s="42" t="n">
         <v>22</v>
       </c>
-      <c r="C92" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" s="35" t="s">
+      <c r="B92" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D92" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E92" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" s="42" t="s">
         <v>66</v>
       </c>
+      <c r="F92" s="42"/>
       <c r="G92" s="42"/>
       <c r="H92" s="42"/>
       <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42" t="s">
+      <c r="J92" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K92" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J92,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L92" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K92,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K92,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N92" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K92,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K92,Condensadoras!$A$2:$I$77,7,0))</f>
+        <f aca="false">IFERROR(VLOOKUP(J92,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J92,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J92,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Detrás</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="42" t="n">
+      <c r="A93" s="42" t="n">
         <v>23</v>
       </c>
-      <c r="C93" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" s="35" t="s">
+      <c r="B93" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D93" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E93" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F93" s="42" t="s">
         <v>61</v>
       </c>
+      <c r="F93" s="42"/>
       <c r="G93" s="42"/>
       <c r="H93" s="42"/>
       <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="42" t="s">
+      <c r="J93" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K93" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J93,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L93" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K93,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M93" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K93,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N93" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K93,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K93,Condensadoras!$A$2:$I$77,7,0))</f>
+        <f aca="false">IFERROR(VLOOKUP(J93,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J93,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J93,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Detrás</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="42" t="n">
+      <c r="A94" s="42" t="n">
         <v>24</v>
       </c>
-      <c r="C94" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" s="35" t="s">
+      <c r="B94" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D94" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E94" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F94" s="42" t="s">
         <v>62</v>
       </c>
+      <c r="F94" s="42"/>
       <c r="G94" s="42"/>
       <c r="H94" s="42"/>
       <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42" t="s">
+      <c r="J94" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K94" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J94,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L94" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K94,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M94" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K94,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N94" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J94,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="37" t="n">
         <v>43831</v>
       </c>
-      <c r="O94" s="38" t="s">
+      <c r="N94" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="42" t="n">
+      <c r="A95" s="42" t="n">
         <v>25</v>
       </c>
-      <c r="C95" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" s="35" t="s">
+      <c r="B95" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D95" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E95" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F95" s="42" t="s">
         <v>63</v>
       </c>
+      <c r="F95" s="42"/>
       <c r="G95" s="42"/>
       <c r="H95" s="42"/>
       <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42" t="s">
+      <c r="J95" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K95" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J95,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L95" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K95,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M95" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K95,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N95" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J95,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="37" t="n">
         <v>43831</v>
       </c>
-      <c r="O95" s="38" t="s">
+      <c r="N95" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="42" t="n">
+      <c r="A96" s="42" t="n">
         <v>26</v>
       </c>
-      <c r="C96" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" s="35" t="s">
+      <c r="B96" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D96" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E96" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F96" s="42" t="s">
         <v>64</v>
       </c>
+      <c r="F96" s="42"/>
       <c r="G96" s="42"/>
       <c r="H96" s="42"/>
       <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42" t="s">
+      <c r="J96" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K96" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J96,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L96" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K96,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K96,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N96" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J96,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O96" s="38" t="s">
+      <c r="N96" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="42" t="n">
+      <c r="A97" s="42" t="n">
         <v>27</v>
       </c>
-      <c r="C97" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" s="35" t="s">
+      <c r="B97" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D97" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E97" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F97" s="42" t="s">
         <v>65</v>
       </c>
+      <c r="F97" s="42"/>
       <c r="G97" s="42"/>
       <c r="H97" s="42"/>
       <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="42" t="s">
+      <c r="J97" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K97" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J97,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L97" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K97,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M97" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K97,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N97" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J97,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O97" s="38" t="s">
+      <c r="N97" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="42" t="n">
+      <c r="A98" s="42" t="n">
         <v>28</v>
       </c>
-      <c r="C98" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" s="35" t="s">
+      <c r="B98" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D98" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E98" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F98" s="42" t="s">
         <v>65</v>
       </c>
+      <c r="F98" s="42"/>
       <c r="G98" s="42"/>
       <c r="H98" s="42"/>
       <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="42" t="s">
+      <c r="J98" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K98" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J98,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L98" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K98,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K98,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N98" s="37" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J98,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="37" t="n">
         <v>42005</v>
       </c>
-      <c r="O98" s="38" t="s">
+      <c r="N98" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="42" t="n">
+      <c r="A99" s="42" t="n">
         <v>29</v>
       </c>
-      <c r="C99" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" s="35" t="s">
+      <c r="B99" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D99" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E99" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F99" s="42" t="s">
         <v>65</v>
       </c>
+      <c r="F99" s="42"/>
       <c r="G99" s="42"/>
       <c r="H99" s="42"/>
       <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="42" t="s">
+      <c r="J99" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K99" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J99,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L99" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K99,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K99,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N99" s="37"/>
+        <f aca="false">IFERROR(VLOOKUP(J99,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="37"/>
     </row>
     <row r="100" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="42" t="n">
+      <c r="A100" s="42" t="n">
         <v>30</v>
       </c>
-      <c r="C100" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" s="35" t="s">
+      <c r="B100" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D100" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E100" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F100" s="42" t="s">
         <v>65</v>
       </c>
+      <c r="F100" s="42"/>
       <c r="G100" s="42"/>
       <c r="H100" s="42"/>
       <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="42" t="s">
+      <c r="J100" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K100" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J100,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L100" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K100,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M100" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K100,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N100" s="37"/>
+        <f aca="false">IFERROR(VLOOKUP(J100,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="37"/>
     </row>
     <row r="101" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="42" t="n">
+      <c r="A101" s="42" t="n">
         <v>31</v>
       </c>
-      <c r="C101" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" s="35" t="s">
+      <c r="B101" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D101" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E101" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F101" s="42" t="s">
         <v>65</v>
       </c>
+      <c r="F101" s="42"/>
       <c r="G101" s="42"/>
       <c r="H101" s="42"/>
       <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42" t="s">
+      <c r="J101" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K101" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J101,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L101" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K101,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K101,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N101" s="37"/>
+        <f aca="false">IFERROR(VLOOKUP(J101,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="37"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="42" t="n">
+      <c r="A102" s="42" t="n">
         <v>32</v>
       </c>
-      <c r="C102" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" s="35" t="s">
+      <c r="B102" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D102" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E102" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F102" s="42" t="s">
         <v>65</v>
       </c>
+      <c r="F102" s="42"/>
       <c r="G102" s="42"/>
       <c r="H102" s="42"/>
       <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="42" t="s">
+      <c r="J102" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="K102" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J102,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L102" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K102,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M102" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K102,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N102" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K102,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K102,Condensadoras!$A$2:$I$77,7,0))</f>
+        <f aca="false">IFERROR(VLOOKUP(J102,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J102,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J102,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Detrás</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="42" t="n">
+      <c r="A103" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="C103" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" s="35" t="s">
+      <c r="B103" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D103" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E103" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F103" s="42" t="s">
         <v>83</v>
       </c>
+      <c r="F103" s="42"/>
       <c r="G103" s="42"/>
       <c r="H103" s="42"/>
       <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="42" t="s">
+      <c r="J103" s="42" t="s">
         <v>73</v>
       </c>
+      <c r="K103" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J103,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L103" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K103,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K103,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N103" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K103,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K103,Condensadoras!$A$2:$I$77,7,0))</f>
+        <f aca="false">IFERROR(VLOOKUP(J103,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J103,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J103,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Detrás</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="42" t="n">
+      <c r="A104" s="42" t="n">
         <v>8</v>
       </c>
-      <c r="C104" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" s="35" t="s">
+      <c r="B104" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D104" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E104" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F104" s="42" t="s">
         <v>84</v>
       </c>
+      <c r="F104" s="42"/>
       <c r="G104" s="42"/>
       <c r="H104" s="42"/>
       <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="42" t="s">
+      <c r="J104" s="42" t="s">
         <v>73</v>
       </c>
+      <c r="K104" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J104,Condensadoras!$A$2:$H$77,5,0),"")</f>
+        <v>0</v>
+      </c>
       <c r="L104" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K104,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K104,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N104" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K104,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K104,Condensadoras!$A$2:$I$77,7,0))</f>
+        <f aca="false">IFERROR(VLOOKUP(J104,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J104,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J104,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea - Detrás</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="42" t="s">
+      <c r="A105" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="C105" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" s="35" t="s">
+      <c r="B105" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D105" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E105" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F105" s="42" t="s">
         <v>101</v>
       </c>
+      <c r="F105" s="42"/>
       <c r="G105" s="42"/>
       <c r="H105" s="42"/>
       <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="42" t="s">
+      <c r="J105" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="L105" s="43" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K105,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K105" s="43" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J105,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>SUZ-SM71VA</v>
       </c>
-      <c r="M105" s="43" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K105,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N105" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K105,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K105,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L105" s="43" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J105,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M105" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J105,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J105,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Patio Olivera</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="35" t="s">
+      <c r="A106" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C106" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" s="35" t="s">
+      <c r="B106" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D106" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E106" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F106" s="42" t="s">
         <v>118</v>
       </c>
+      <c r="F106" s="35"/>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
       <c r="I106" s="35"/>
-      <c r="J106" s="35"/>
-      <c r="K106" s="35" t="s">
+      <c r="J106" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L106" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K106,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K106" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J106,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM2</v>
       </c>
-      <c r="M106" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K106,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N106" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K106,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K106,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L106" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J106,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J106,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J106,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea-Detrás</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="35" t="s">
+      <c r="A107" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C107" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" s="35" t="s">
+      <c r="B107" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D107" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E107" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F107" s="42" t="s">
         <v>119</v>
       </c>
+      <c r="F107" s="35"/>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
       <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="35" t="s">
+      <c r="J107" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L107" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K107,Condensadoras!$A$2:$H$77,5,0),"")</f>
+      <c r="K107" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J107,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v>PUMY-P300YBM2</v>
       </c>
-      <c r="M107" s="36" t="n">
-        <f aca="false">IFERROR(VLOOKUP(K107,Condensadoras!$A$2:$H$77,6,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N107" s="37" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP(K107,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(K107,Condensadoras!$A$2:$I$77,7,0))</f>
+      <c r="L107" s="36" t="n">
+        <f aca="false">IFERROR(VLOOKUP(J107,Condensadoras!$A$2:$H$77,6,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="37" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(J107,Condensadoras!$A$2:$I$77,7,0),"")=0,"",VLOOKUP(J107,Condensadoras!$A$2:$I$77,7,0))</f>
         <v>Azotea-Detrás</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="35"/>
-      <c r="C108" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" s="35" t="s">
+      <c r="A108" s="35"/>
+      <c r="B108" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D108" s="35"/>
       <c r="E108" s="35"/>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
       <c r="I108" s="35"/>
       <c r="J108" s="35"/>
-      <c r="K108" s="35"/>
+      <c r="K108" s="36"/>
       <c r="L108" s="36"/>
       <c r="M108" s="36"/>
-      <c r="N108" s="36"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="35"/>
-      <c r="C109" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" s="35" t="s">
+      <c r="A109" s="35"/>
+      <c r="B109" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D109" s="35"/>
       <c r="E109" s="35"/>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
       <c r="H109" s="35"/>
       <c r="I109" s="35"/>
       <c r="J109" s="35"/>
-      <c r="K109" s="35"/>
+      <c r="K109" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J109,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L109" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K109,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J109,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M109" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K109,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N109" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L109,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="35"/>
-      <c r="C110" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" s="35" t="s">
+      <c r="A110" s="35"/>
+      <c r="B110" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D110" s="35"/>
       <c r="E110" s="35"/>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
       <c r="I110" s="35"/>
       <c r="J110" s="35"/>
-      <c r="K110" s="35"/>
+      <c r="K110" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J110,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L110" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K110,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J110,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M110" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K110,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N110" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L110,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="35"/>
-      <c r="C111" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" s="35" t="s">
+      <c r="A111" s="35"/>
+      <c r="B111" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D111" s="35"/>
       <c r="E111" s="35"/>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
       <c r="I111" s="35"/>
       <c r="J111" s="35"/>
-      <c r="K111" s="35"/>
+      <c r="K111" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J111,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L111" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K111,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J111,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M111" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K111,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N111" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L111,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="35"/>
-      <c r="C112" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" s="35" t="s">
+      <c r="A112" s="35"/>
+      <c r="B112" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D112" s="35"/>
       <c r="E112" s="35"/>
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
       <c r="H112" s="35"/>
       <c r="I112" s="35"/>
       <c r="J112" s="35"/>
-      <c r="K112" s="35"/>
+      <c r="K112" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J112,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L112" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K112,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J112,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M112" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K112,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N112" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L112,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="35"/>
-      <c r="C113" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" s="35" t="s">
+      <c r="A113" s="35"/>
+      <c r="B113" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D113" s="35"/>
       <c r="E113" s="35"/>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
       <c r="I113" s="35"/>
       <c r="J113" s="35"/>
-      <c r="K113" s="35"/>
+      <c r="K113" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J113,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L113" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K113,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J113,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M113" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K113,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N113" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L113,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="35"/>
-      <c r="C114" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D114" s="35" t="s">
+      <c r="A114" s="35"/>
+      <c r="B114" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D114" s="35"/>
       <c r="E114" s="35"/>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
       <c r="I114" s="35"/>
       <c r="J114" s="35"/>
-      <c r="K114" s="35"/>
+      <c r="K114" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J114,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L114" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K114,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J114,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M114" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K114,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N114" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L114,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="35"/>
-      <c r="C115" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D115" s="35" t="s">
+      <c r="A115" s="35"/>
+      <c r="B115" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D115" s="35"/>
       <c r="E115" s="35"/>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
       <c r="I115" s="35"/>
       <c r="J115" s="35"/>
-      <c r="K115" s="35"/>
+      <c r="K115" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J115,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L115" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K115,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J115,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M115" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K115,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N115" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L115,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="35"/>
-      <c r="C116" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D116" s="35" t="s">
+      <c r="A116" s="35"/>
+      <c r="B116" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D116" s="35"/>
       <c r="E116" s="35"/>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
       <c r="I116" s="35"/>
       <c r="J116" s="35"/>
-      <c r="K116" s="35"/>
+      <c r="K116" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J116,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L116" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K116,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J116,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M116" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K116,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N116" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L116,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="35"/>
-      <c r="C117" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D117" s="35" t="s">
+      <c r="A117" s="35"/>
+      <c r="B117" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D117" s="35"/>
       <c r="E117" s="35"/>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
       <c r="I117" s="35"/>
       <c r="J117" s="35"/>
-      <c r="K117" s="35"/>
+      <c r="K117" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J117,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L117" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K117,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J117,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M117" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K117,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N117" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L117,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="35"/>
-      <c r="C118" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D118" s="35" t="s">
+      <c r="A118" s="35"/>
+      <c r="B118" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D118" s="35"/>
       <c r="E118" s="35"/>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
       <c r="I118" s="35"/>
       <c r="J118" s="35"/>
-      <c r="K118" s="35"/>
+      <c r="K118" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J118,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L118" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K118,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J118,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M118" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K118,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N118" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L118,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="35"/>
-      <c r="C119" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" s="35" t="s">
+      <c r="A119" s="35"/>
+      <c r="B119" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D119" s="35"/>
       <c r="E119" s="35"/>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
       <c r="J119" s="35"/>
-      <c r="K119" s="35"/>
+      <c r="K119" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J119,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L119" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K119,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J119,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M119" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K119,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N119" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L119,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="35"/>
-      <c r="C120" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" s="35" t="s">
+      <c r="A120" s="35"/>
+      <c r="B120" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D120" s="35"/>
       <c r="E120" s="35"/>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
       <c r="I120" s="35"/>
       <c r="J120" s="35"/>
-      <c r="K120" s="35"/>
+      <c r="K120" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J120,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L120" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K120,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J120,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M120" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K120,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N120" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L120,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="35"/>
-      <c r="C121" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D121" s="35" t="s">
+      <c r="A121" s="35"/>
+      <c r="B121" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D121" s="35"/>
       <c r="E121" s="35"/>
       <c r="F121" s="35"/>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
       <c r="I121" s="35"/>
       <c r="J121" s="35"/>
-      <c r="K121" s="35"/>
+      <c r="K121" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J121,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L121" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K121,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J121,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M121" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K121,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N121" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L121,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="35"/>
-      <c r="C122" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D122" s="35" t="s">
+      <c r="A122" s="35"/>
+      <c r="B122" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D122" s="35"/>
       <c r="E122" s="35"/>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
       <c r="H122" s="35"/>
       <c r="I122" s="35"/>
       <c r="J122" s="35"/>
-      <c r="K122" s="35"/>
+      <c r="K122" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J122,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L122" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K122,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J122,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M122" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K122,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N122" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L122,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="35"/>
-      <c r="C123" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" s="35" t="s">
+      <c r="A123" s="35"/>
+      <c r="B123" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D123" s="35"/>
       <c r="E123" s="35"/>
       <c r="F123" s="35"/>
       <c r="G123" s="35"/>
       <c r="H123" s="35"/>
       <c r="I123" s="35"/>
       <c r="J123" s="35"/>
-      <c r="K123" s="35"/>
+      <c r="K123" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J123,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L123" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K123,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J123,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M123" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K123,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N123" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L123,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="35"/>
-      <c r="C124" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" s="35" t="s">
+      <c r="A124" s="35"/>
+      <c r="B124" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D124" s="35"/>
       <c r="E124" s="35"/>
       <c r="F124" s="35"/>
       <c r="G124" s="35"/>
       <c r="H124" s="35"/>
       <c r="I124" s="35"/>
       <c r="J124" s="35"/>
-      <c r="K124" s="35"/>
+      <c r="K124" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J124,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L124" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K124,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J124,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M124" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K124,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N124" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L124,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="35"/>
-      <c r="C125" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" s="35" t="s">
+      <c r="A125" s="35"/>
+      <c r="B125" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" s="35" t="s">
         <v>145</v>
       </c>
+      <c r="D125" s="35"/>
       <c r="E125" s="35"/>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
       <c r="H125" s="35"/>
       <c r="I125" s="35"/>
       <c r="J125" s="35"/>
-      <c r="K125" s="35"/>
+      <c r="K125" s="36" t="str">
+        <f aca="false">IFERROR(VLOOKUP(J125,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <v/>
+      </c>
       <c r="L125" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(K125,Condensadoras!$A$2:$H$77,4,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(J125,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
       <c r="M125" s="36" t="str">
         <f aca="false">IFERROR(VLOOKUP(K125,Condensadoras!$A$2:$H$77,5,0),"")</f>
         <v/>
       </c>
-      <c r="N125" s="36" t="str">
-        <f aca="false">IFERROR(VLOOKUP(L125,Condensadoras!$A$2:$H$77,5,0),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="44"/>
-      <c r="B127" s="45" t="s">
+      <c r="A127" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C127" s="45"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="44"/>
       <c r="D127" s="45"/>
-      <c r="E127" s="44"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="44"/>
-      <c r="B128" s="45" t="s">
+      <c r="A128" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="C128" s="45"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="44"/>
       <c r="D128" s="45"/>
-      <c r="E128" s="44"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="44"/>
-      <c r="B129" s="45" t="s">
+      <c r="A129" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="C129" s="45"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="44"/>
       <c r="D129" s="45"/>
-      <c r="E129" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M125">
-    <sortState ref="B3:M125">
+  <autoFilter ref="A2:L125">
+    <sortState ref="A3:L125">
       <sortCondition ref="B3:B125" customList=""/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
@@ -11597,13 +11589,13 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A200" activeCellId="0" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.45"/>
@@ -11619,7 +11611,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -11657,33 +11649,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="52" t="n">
-        <v>39083</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="49" t="s">
         <v>20</v>
       </c>
@@ -11695,20 +11661,20 @@
         <v>178</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="53"/>
+        <v>179</v>
+      </c>
+      <c r="F3" s="51"/>
       <c r="G3" s="49" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I3" s="52" t="n">
         <v>45825</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="s">
         <v>30</v>
       </c>
@@ -11720,21 +11686,21 @@
         <v>178</v>
       </c>
       <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I4" s="52" t="n">
         <v>40909</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="49" t="s">
         <v>41</v>
       </c>
@@ -11746,21 +11712,21 @@
         <v>178</v>
       </c>
       <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I5" s="52" t="n">
         <v>40909</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
         <v>55</v>
       </c>
@@ -11774,9 +11740,9 @@
       <c r="E6" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="51"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>185</v>
@@ -11785,10 +11751,10 @@
         <v>39083</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
         <v>57</v>
       </c>
@@ -11802,9 +11768,9 @@
       <c r="E7" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="51"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H7" s="49" t="s">
         <v>185</v>
@@ -11813,10 +11779,10 @@
         <v>39083</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
         <v>186</v>
       </c>
@@ -11828,9 +11794,9 @@
         <v>178</v>
       </c>
       <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H8" s="49" t="s">
         <v>187</v>
@@ -11839,33 +11805,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="I9" s="52" t="n">
-        <v>40909</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="s">
         <v>67</v>
       </c>
@@ -11877,21 +11817,21 @@
         <v>178</v>
       </c>
       <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I10" s="52" t="n">
         <v>40909</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
         <v>73</v>
       </c>
@@ -11903,21 +11843,21 @@
         <v>178</v>
       </c>
       <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I11" s="52" t="n">
         <v>40909</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
         <v>85</v>
       </c>
@@ -11931,21 +11871,21 @@
       <c r="E12" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="F12" s="51"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I12" s="52" t="n">
         <v>40909</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="49" t="s">
         <v>88</v>
       </c>
@@ -11959,21 +11899,21 @@
       <c r="E13" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="51"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="49" t="s">
         <v>190</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I13" s="52" t="n">
         <v>40909</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
         <v>191</v>
       </c>
@@ -11985,7 +11925,7 @@
         <v>178</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="49" t="s">
         <v>192</v>
       </c>
@@ -11996,7 +11936,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="49" t="s">
         <v>194</v>
       </c>
@@ -12008,7 +11948,7 @@
         <v>178</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="49" t="s">
         <v>190</v>
       </c>
@@ -12019,7 +11959,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="49" t="s">
         <v>90</v>
       </c>
@@ -12033,21 +11973,21 @@
       <c r="E16" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="51"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="49" t="s">
         <v>190</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I16" s="52" t="n">
         <v>38718</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="49" t="s">
         <v>92</v>
       </c>
@@ -12061,21 +12001,21 @@
       <c r="E17" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="51"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="49" t="s">
         <v>190</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I17" s="52" t="n">
         <v>38718</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="49" t="s">
         <v>94</v>
       </c>
@@ -12089,21 +12029,21 @@
       <c r="E18" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="F18" s="51"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="49" t="s">
         <v>190</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I18" s="52" t="n">
         <v>38718</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="49" t="s">
         <v>96</v>
       </c>
@@ -12117,7 +12057,7 @@
       <c r="E19" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="51"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="49" t="s">
         <v>190</v>
       </c>
@@ -12128,10 +12068,10 @@
         <v>43831</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="49" t="s">
         <v>98</v>
       </c>
@@ -12145,7 +12085,7 @@
       <c r="E20" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="51"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="49" t="s">
         <v>190</v>
       </c>
@@ -12156,10 +12096,10 @@
         <v>42005</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="49" t="s">
         <v>199</v>
       </c>
@@ -12171,7 +12111,7 @@
         <v>178</v>
       </c>
       <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="49" t="s">
         <v>192</v>
       </c>
@@ -12185,7 +12125,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="49" t="s">
         <v>201</v>
       </c>
@@ -12197,7 +12137,7 @@
         <v>178</v>
       </c>
       <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="49" t="s">
         <v>192</v>
       </c>
@@ -12211,7 +12151,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="49" t="s">
         <v>100</v>
       </c>
@@ -12225,18 +12165,18 @@
       <c r="E23" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="51"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="49" t="s">
         <v>203</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I23" s="52" t="n">
         <v>45474</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="49" t="s">
         <v>102</v>
       </c>
@@ -12250,7 +12190,7 @@
       <c r="E24" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="51"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="49" t="s">
         <v>190</v>
       </c>
@@ -12261,10 +12201,10 @@
         <v>42005</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="49" t="s">
         <v>204</v>
       </c>
@@ -12276,7 +12216,7 @@
         <v>178</v>
       </c>
       <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="49" t="s">
         <v>192</v>
       </c>
@@ -12287,7 +12227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49" t="s">
         <v>104</v>
       </c>
@@ -12301,21 +12241,21 @@
       <c r="E26" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="F26" s="51"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="49" t="s">
         <v>190</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I26" s="52" t="n">
         <v>42005</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="49" t="s">
         <v>106</v>
       </c>
@@ -12329,21 +12269,21 @@
       <c r="E27" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="51"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="49" t="s">
         <v>190</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I27" s="52" t="n">
         <v>42005</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="49" t="s">
         <v>107</v>
       </c>
@@ -12357,21 +12297,21 @@
       <c r="E28" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="51"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="49" t="s">
         <v>190</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I28" s="52" t="n">
         <v>42005</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>109</v>
       </c>
@@ -12385,25 +12325,25 @@
       <c r="E29" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="51"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="49" t="s">
         <v>203</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I29" s="52" t="n">
         <v>42005</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="49" t="s">
         <v>195</v>
       </c>
@@ -12413,7 +12353,7 @@
       <c r="E30" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="51"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="49" t="s">
         <v>203</v>
       </c>
@@ -12424,14 +12364,14 @@
         <v>42005</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="49" t="s">
         <v>177</v>
       </c>
@@ -12441,22 +12381,22 @@
       <c r="E31" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="F31" s="51"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="49" t="s">
         <v>192</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I31" s="52" t="n">
         <v>45506</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="49" t="s">
         <v>195</v>
       </c>
@@ -12466,25 +12406,25 @@
       <c r="E32" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I32" s="52" t="n">
         <v>42005</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="49" t="s">
         <v>177</v>
       </c>
@@ -12496,16 +12436,16 @@
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I33" s="52" t="n">
         <v>45825</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -12516,7 +12456,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -12527,7 +12467,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -12538,7 +12478,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -12549,7 +12489,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
@@ -12560,7 +12500,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -12571,7 +12511,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -12612,9 +12552,159 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:I33">
     <filterColumn colId="2">
@@ -12748,7 +12838,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" s="54" t="n">
         <v>2088</v>
@@ -12760,7 +12850,7 @@
         <v>218</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H7" s="54" t="n">
         <v>2029</v>
@@ -12895,22 +12985,22 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
-        <v>180</v>
+      <c r="A2" s="38" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="38" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="38" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="38" t="s">
         <v>193</v>
       </c>
     </row>
@@ -12988,12 +13078,12 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="38" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>230</v>
       </c>
     </row>
